--- a/MainTop/13.02.2025/ccc.xlsx
+++ b/MainTop/13.02.2025/ccc.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Max\Documents\GitHub\Ozon_upload\MainTop\13.02.2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FB80FF9F-E05A-4BD7-BB6F-C944D825E78B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF20A2A9-BF17-4D8F-89BC-9770F438777A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{57A32906-2B20-41CD-96A1-83CEBE865E2D}"/>
   </bookViews>
@@ -27,13 +27,13 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
-    <t>Термонаклейка Дисней утка Дейзи и Минни мороженое</t>
-  </si>
-  <si>
     <t>Артикул</t>
   </si>
   <si>
     <t>Num_Copies</t>
+  </si>
+  <si>
+    <t>Термонаклейка Дейзи и Минни Маус коктейль</t>
   </si>
 </sst>
 </file>
@@ -414,22 +414,25 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="42.5703125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B2">
         <v>4</v>
